--- a/downloaded_files/ARCS230_Tutorial-35199.xlsx
+++ b/downloaded_files/ARCS230_Tutorial-35199.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman mohamed mohamed mahdy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي محمد ابو زيد محمد ابو زيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Abouzeid Mohamed Abouzeid</x:t>
   </x:si>
   <x:si>
     <x:t>1230084</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -982,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.7543384259</x:v>
+        <x:v>45907.4190114583</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4190114583</x:v>
+        <x:v>45915.9578880787</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.9578880787</x:v>
+        <x:v>45907.4250551273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4250551273</x:v>
+        <x:v>45907.4166217593</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4166217593</x:v>
+        <x:v>45911.971458912</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45911.971458912</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45907.4257649653</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4257649653</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45907.4150408565</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4150408565</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
